--- a/data/trans_dic/IP19C09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C09-Edad-trans_dic.xlsx
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>3,5%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,64</t>
+          <t>0,59; 5,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,82</t>
+          <t>1,15; 6,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,98</t>
+          <t>0,93; 5,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,9</t>
+          <t>0,0; 4,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,04</t>
+          <t>0,0; 5,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,93</t>
+          <t>1,81; 8,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,24</t>
+          <t>0,68; 4,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,16</t>
+          <t>0,96; 4,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,02</t>
+          <t>1,87; 6,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,6</t>
+          <t>1,17; 4,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,21</t>
+          <t>0,29; 2,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,98</t>
+          <t>0,63; 3,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,51</t>
+          <t>0,33; 2,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,03</t>
+          <t>0,34; 3,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 8,48</t>
+          <t>0,65; 3,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,22</t>
+          <t>1,03; 3,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,91</t>
+          <t>0,47; 2,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,02</t>
+          <t>0,84; 3,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C09-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,27 +632,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -662,17 +662,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 31,0</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,55</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,35</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,05</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,05</t>
+          <t>0,0; 79,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 14,85</t>
+          <t>0; 18,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 16,28</t>
+          <t>0,0; 64,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,5</t>
+          <t>0; 44,41</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>4,91%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,6</t>
+          <t>2,19; 10,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,21</t>
+          <t>0,93; 8,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,98</t>
+          <t>2,28; 11,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,51</t>
+          <t>0,0; 5,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,03</t>
+          <t>0,78; 8,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 8,48</t>
+          <t>1,19; 11,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,22</t>
+          <t>1,55; 6,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,91</t>
+          <t>1,34; 6,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,02</t>
+          <t>2,16; 8,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,64</t>
+          <t>0,0; 3,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,82</t>
+          <t>0,48; 4,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,98</t>
+          <t>0,0; 3,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,9</t>
+          <t>0,0; 6,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,04</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,93</t>
+          <t>1,37; 6,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,24</t>
+          <t>0,3; 2,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,16</t>
+          <t>0,26; 3,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,02</t>
+          <t>0,95; 3,72</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,98</t>
+          <t>1,8; 6,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,52</t>
+          <t>0,0; 4,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,11</t>
+          <t>0,55; 5,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,67</t>
+          <t>0,39; 3,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,94</t>
+          <t>0,42; 4,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,1</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,32</t>
+          <t>1,22; 4,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,74</t>
+          <t>0,47; 2,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,55</t>
+          <t>0,55; 3,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 4,64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 3,44</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 4,25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 2,86</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 3,18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 4,5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 3,25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 2,71</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 3,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>

--- a/data/trans_dic/IP19C09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C09-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,52</t>
+          <t>0,0; 76,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,79</t>
+          <t>0,0; 65,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 10,38</t>
+          <t>2,37; 10,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,33</t>
+          <t>0,91; 8,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 11,74</t>
+          <t>1,7; 10,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,45</t>
+          <t>0,0; 4,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 8,9</t>
+          <t>0,78; 8,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 11,19</t>
+          <t>1,19; 13,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,13</t>
+          <t>1,54; 6,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 6,15</t>
+          <t>1,22; 6,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 8,86</t>
+          <t>2,42; 8,81</t>
         </is>
       </c>
     </row>
@@ -905,22 +905,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,27</t>
+          <t>0,0; 3,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,88</t>
+          <t>0,47; 5,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,34</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,02</t>
+          <t>0,0; 4,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,22 +930,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 6,18</t>
+          <t>1,42; 6,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,93</t>
+          <t>0,3; 2,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,07</t>
+          <t>0,26; 2,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,72</t>
+          <t>1,03; 3,7</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 6,22</t>
+          <t>1,81; 6,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,11</t>
+          <t>0,0; 3,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,5</t>
+          <t>0,55; 5,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,38</t>
+          <t>0,39; 3,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,07</t>
+          <t>0,42; 3,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,43</t>
+          <t>0,0; 3,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,0</t>
+          <t>1,36; 4,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,62</t>
+          <t>0,48; 2,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,4</t>
+          <t>0,71; 3,59</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,64</t>
+          <t>1,9; 4,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,44</t>
+          <t>0,94; 3,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,25</t>
+          <t>1,31; 4,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,86</t>
+          <t>0,57; 2,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,18</t>
+          <t>0,73; 3,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,5</t>
+          <t>1,33; 4,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,25</t>
+          <t>1,54; 3,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,71</t>
+          <t>1,05; 2,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,6</t>
+          <t>1,55; 3,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C09-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -637,22 +637,22 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>18,84%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>18,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -685,34 +685,34 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 26,42</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 76,67</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0; 44,41</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>0; 77,15</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 56,93</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0; 26,42</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 76,51</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
           <t>0; 18,74</t>
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,87</t>
+          <t>0,0; 65,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,32 +742,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>5,56%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>3,18%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>5,43%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,48%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,01%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 10,04</t>
+          <t>0,0; 5,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,07</t>
+          <t>0,77; 9,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 10,71</t>
+          <t>1,18; 11,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,56</t>
+          <t>2,4; 10,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 8,5</t>
+          <t>0,91; 7,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 13,06</t>
+          <t>2,25; 11,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 6,04</t>
+          <t>1,53; 6,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 6,06</t>
+          <t>1,27; 6,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 8,81</t>
+          <t>1,97; 8,48</t>
         </is>
       </c>
     </row>
@@ -852,32 +852,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,61%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>1,79%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,95%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,56%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,51</t>
+          <t>0,0; 5,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,15</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,43</t>
+          <t>1,21; 6,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,92</t>
+          <t>0,0; 3,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,73</t>
+          <t>0,48; 5,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,2</t>
+          <t>0,0; 3,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,72</t>
+          <t>0,3; 3,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,87</t>
+          <t>0,26; 2,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,7</t>
+          <t>1,02; 3,92</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>3,44%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>0,98%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>2,21%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,28%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,19</t>
+          <t>0,39; 3,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,45</t>
+          <t>0,42; 4,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,16</t>
+          <t>0,0; 3,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,45</t>
+          <t>1,54; 6,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,87</t>
+          <t>0,0; 3,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,82</t>
+          <t>0,55; 5,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,08</t>
+          <t>1,24; 4,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,67</t>
+          <t>0,45; 2,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,59</t>
+          <t>0,63; 3,46</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>3,07%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>1,82%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>2,42%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,39%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,55%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1125,37 +1125,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,82</t>
+          <t>0,58; 2,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,43</t>
+          <t>0,72; 2,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,08</t>
+          <t>1,2; 4,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,72</t>
+          <t>1,97; 4,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,13</t>
+          <t>0,82; 3,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,33</t>
+          <t>1,22; 4,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,32</t>
+          <t>1,5; 3,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,53</t>
+          <t>1,62; 3,55</t>
         </is>
       </c>
     </row>
